--- a/Experiments/Part1-Uniform-MajorMinor/Part2-DocPop.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part2-DocPop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="0" windowWidth="27900" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1193,20 +1193,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2104799192"/>
-        <c:axId val="-2111138456"/>
+        <c:axId val="2101604808"/>
+        <c:axId val="2103005496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2104799192"/>
+        <c:axId val="2101604808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111138456"/>
+        <c:crossAx val="2103005496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,18 +1233,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111138456"/>
+        <c:axId val="2103005496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104799192"/>
+        <c:crossAx val="2101604808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,20 +2387,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110536440"/>
-        <c:axId val="-2096173304"/>
+        <c:axId val="2102957752"/>
+        <c:axId val="2102960872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110536440"/>
+        <c:axId val="2102957752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096173304"/>
+        <c:crossAx val="2102960872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2370,18 +2427,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096173304"/>
+        <c:axId val="2102960872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110536440"/>
+        <c:crossAx val="2102957752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,16 +2513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Experiments/Part1-Uniform-MajorMinor/Part2-DocPop.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Part2-DocPop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="17020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
     <t>Taste0(Random)</t>
   </si>
   <si>
-    <t>Taste0(DocPop-Uniform)</t>
+    <t>Taste 1(DocPop_uniform)</t>
   </si>
   <si>
-    <t>Taste1(DocPop-Unifom)</t>
+    <t>Taste 0 (DocPop_uniform)</t>
   </si>
   <si>
-    <t>Taste1(DocPopMajor)</t>
+    <t>Taste 1 (DocPop_MajorMinor)</t>
   </si>
   <si>
-    <t>taste0(DocPopMinor)</t>
+    <t>Taste 0 (DocPop_MajorMinor)</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.237952893083487"/>
+          <c:y val="0.0326340326340326"/>
+          <c:w val="0.487115147191967"/>
+          <c:h val="0.857000899363104"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -120,7 +130,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(DocPop-Unifom)</c:v>
+                  <c:v>Taste 1(DocPop_uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -135,241 +145,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>3.393333333</c:v>
+                  <c:v>2.826666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.781666667</c:v>
+                  <c:v>4.313333333333321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.698333333000001</c:v>
+                  <c:v>6.186666666666658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.32</c:v>
+                  <c:v>8.893333333333321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.605</c:v>
+                  <c:v>10.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.775</c:v>
+                  <c:v>12.57333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.68333333</c:v>
+                  <c:v>14.99333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.46333333</c:v>
+                  <c:v>18.78666666666662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.86166667</c:v>
+                  <c:v>23.48666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.93</c:v>
+                  <c:v>25.94666666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.43</c:v>
+                  <c:v>29.43333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.875</c:v>
+                  <c:v>33.6533333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.45166667</c:v>
+                  <c:v>35.55999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.39833333</c:v>
+                  <c:v>37.6133333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.69333333</c:v>
+                  <c:v>38.20666666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.91</c:v>
+                  <c:v>40.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.28666667</c:v>
+                  <c:v>43.42666666666662</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.515</c:v>
+                  <c:v>47.32666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.35333333</c:v>
+                  <c:v>50.7533333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.415</c:v>
+                  <c:v>51.7933333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66.83333333</c:v>
+                  <c:v>55.04666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69.67833333</c:v>
+                  <c:v>57.67333333333329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72.60833332999999</c:v>
+                  <c:v>59.61333333333329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.84666667</c:v>
+                  <c:v>63.11333333333329</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>79.23833333</c:v>
+                  <c:v>66.2533333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>82.56333333000001</c:v>
+                  <c:v>67.05333333333331</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>85.66333333</c:v>
+                  <c:v>68.63999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.60666667</c:v>
+                  <c:v>70.53999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91.935</c:v>
+                  <c:v>71.53999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>94.265</c:v>
+                  <c:v>73.95999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>96.91666667</c:v>
+                  <c:v>75.83999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.15</c:v>
+                  <c:v>78.17999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>102.7766667</c:v>
+                  <c:v>81.9733333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>105.005</c:v>
+                  <c:v>85.90666666666656</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107.5833333</c:v>
+                  <c:v>87.57333333333328</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>110.335</c:v>
+                  <c:v>88.9866666666666</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>112.5433333</c:v>
+                  <c:v>91.42666666666652</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>114.8266667</c:v>
+                  <c:v>93.9266666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117.365</c:v>
+                  <c:v>96.19333333333317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>120.0683333</c:v>
+                  <c:v>97.24666666666647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>122.22</c:v>
+                  <c:v>99.85333333333323</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>124.715</c:v>
+                  <c:v>102.2133333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>127.6316667</c:v>
+                  <c:v>105.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130.1516667</c:v>
+                  <c:v>108.2399999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>132.4333333</c:v>
+                  <c:v>110.813333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>134.6066667</c:v>
+                  <c:v>112.9266666666664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>136.6883333</c:v>
+                  <c:v>114.8999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>139.6416667</c:v>
+                  <c:v>117.1133333333329</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>141.8833333</c:v>
+                  <c:v>119.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>143.6333333</c:v>
+                  <c:v>122.1933333333329</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>145.3783333</c:v>
+                  <c:v>125.0799999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>147.2716667</c:v>
+                  <c:v>128.1399999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>148.6916667</c:v>
+                  <c:v>129.8799999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>150.0216667</c:v>
+                  <c:v>132.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>151.03</c:v>
+                  <c:v>135.0066666666663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>152.015</c:v>
+                  <c:v>137.5799999999996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>152.665</c:v>
+                  <c:v>140.2999999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>153.565</c:v>
+                  <c:v>142.113333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>154.9433333</c:v>
+                  <c:v>146.3799999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>156.0283333</c:v>
+                  <c:v>149.273333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>157.4016667</c:v>
+                  <c:v>151.4266666666663</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>158.835</c:v>
+                  <c:v>152.8599999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>160.4033333</c:v>
+                  <c:v>154.5466666666664</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>161.77</c:v>
+                  <c:v>157.3733333333331</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>163.8316667</c:v>
+                  <c:v>160.1266666666663</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>166.4483333</c:v>
+                  <c:v>163.8533333333329</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>169.1783333</c:v>
+                  <c:v>166.8199999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>171.975</c:v>
+                  <c:v>169.0399999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>174.9833333</c:v>
+                  <c:v>171.0599999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>177.1433333</c:v>
+                  <c:v>173.5599999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>179.6133333</c:v>
+                  <c:v>174.7999999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>181.8083333</c:v>
+                  <c:v>177.4466666666663</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>183.8766667</c:v>
+                  <c:v>182.2799999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>185.775</c:v>
+                  <c:v>184.1666666666664</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.13</c:v>
+                  <c:v>185.8866666666664</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>190.2</c:v>
+                  <c:v>189.0666666666663</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>192.5266667</c:v>
+                  <c:v>192.3466666666663</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>194.3666667</c:v>
+                  <c:v>194.493333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>196.615</c:v>
+                  <c:v>196.5799999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -388,7 +398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste0(DocPop-Uniform)</c:v>
+                  <c:v>Taste 0 (DocPop_uniform)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,241 +413,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1.393333333</c:v>
+                  <c:v>2.033333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.105</c:v>
+                  <c:v>5.346666666666659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.248333333</c:v>
+                  <c:v>8.346666666666646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.186666667</c:v>
+                  <c:v>10.53333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.361666667</c:v>
+                  <c:v>13.84666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.051666667</c:v>
+                  <c:v>16.4133333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.09666667</c:v>
+                  <c:v>18.56666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.51</c:v>
+                  <c:v>19.95333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.97166667</c:v>
+                  <c:v>20.05333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.53</c:v>
+                  <c:v>22.55999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.99666667</c:v>
+                  <c:v>23.74666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.45166667</c:v>
+                  <c:v>24.45999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.375</c:v>
+                  <c:v>27.36666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.40833333</c:v>
+                  <c:v>30.0733333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.42</c:v>
+                  <c:v>34.49333333333331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.39</c:v>
+                  <c:v>36.9933333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.92</c:v>
+                  <c:v>38.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.81833333</c:v>
+                  <c:v>39.86666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.16666667</c:v>
+                  <c:v>41.43333333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.53166667</c:v>
+                  <c:v>45.26666666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.46666667</c:v>
+                  <c:v>46.85999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.38166667</c:v>
+                  <c:v>49.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.485</c:v>
+                  <c:v>52.15333333333331</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.22666667</c:v>
+                  <c:v>53.42666666666664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.02166667</c:v>
+                  <c:v>55.3533333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.85666667</c:v>
+                  <c:v>59.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.74333333</c:v>
+                  <c:v>62.75999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.72</c:v>
+                  <c:v>65.90666666666665</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47.57166667</c:v>
+                  <c:v>69.67999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.195</c:v>
+                  <c:v>72.27333333333328</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52.49</c:v>
+                  <c:v>75.26666666666662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54.73</c:v>
+                  <c:v>77.7199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.23</c:v>
+                  <c:v>78.88666666666663</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59.52833333</c:v>
+                  <c:v>79.85999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61.88333333</c:v>
+                  <c:v>83.18666666666665</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.87166667</c:v>
+                  <c:v>86.62666666666661</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65.91666667</c:v>
+                  <c:v>89.09999999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68.39333333</c:v>
+                  <c:v>91.58666666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.515</c:v>
+                  <c:v>94.21333333333322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.85833332999999</c:v>
+                  <c:v>98.15333333333322</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75.07333333</c:v>
+                  <c:v>100.4733333333331</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>77.19166667</c:v>
+                  <c:v>102.9533333333331</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>79.44166667</c:v>
+                  <c:v>104.9866666666664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>81.795</c:v>
+                  <c:v>106.8133333333332</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.06666667</c:v>
+                  <c:v>109.2399999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>86.13333333</c:v>
+                  <c:v>112.113333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88.73833333</c:v>
+                  <c:v>115.2599999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>90.79833333000001</c:v>
+                  <c:v>118.0333333333331</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>93.36333333</c:v>
+                  <c:v>120.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.98666667</c:v>
+                  <c:v>122.853333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>99.02833333</c:v>
+                  <c:v>124.9599999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>101.7616667</c:v>
+                  <c:v>127.0599999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>105.1416667</c:v>
+                  <c:v>130.1466666666663</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108.965</c:v>
+                  <c:v>132.8399999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>113.0966667</c:v>
+                  <c:v>135.0399999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>117.2583333</c:v>
+                  <c:v>137.6266666666663</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>121.415</c:v>
+                  <c:v>139.8066666666664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>125.355</c:v>
+                  <c:v>143.053333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>129.2366667</c:v>
+                  <c:v>143.8466666666664</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>133.5316667</c:v>
+                  <c:v>146.0599999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>137.6783333</c:v>
+                  <c:v>148.8266666666663</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>142.0116667</c:v>
+                  <c:v>152.5999999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>145.61</c:v>
+                  <c:v>155.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>149.3433333</c:v>
+                  <c:v>158.0799999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>152.375</c:v>
+                  <c:v>160.4866666666664</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>155.1983333</c:v>
+                  <c:v>162.0399999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>157.595</c:v>
+                  <c:v>164.2466666666664</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>160.1783333</c:v>
+                  <c:v>166.8999999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>162.57</c:v>
+                  <c:v>170.0333333333328</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>165.3433333</c:v>
+                  <c:v>172.8999999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>167.98</c:v>
+                  <c:v>176.7666666666664</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>170.9983333</c:v>
+                  <c:v>179.5333333333331</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>174.4233333</c:v>
+                  <c:v>179.9199999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>177.3916667</c:v>
+                  <c:v>183.2399999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>180.27</c:v>
+                  <c:v>186.5933333333331</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>183.16</c:v>
+                  <c:v>188.8199999999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>186.6133333</c:v>
+                  <c:v>190.7866666666664</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>190.8066667</c:v>
+                  <c:v>194.1666666666664</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>194.9516667</c:v>
+                  <c:v>197.4999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1193,11 +1203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101604808"/>
-        <c:axId val="2103005496"/>
+        <c:axId val="-2111634136"/>
+        <c:axId val="-2096781752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101604808"/>
+        <c:axId val="-2111634136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103005496"/>
+        <c:crossAx val="-2096781752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103005496"/>
+        <c:axId val="-2096781752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101604808"/>
+        <c:crossAx val="-2111634136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,7 +1324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste1(DocPopMajor)</c:v>
+                  <c:v>Taste 1 (DocPop_MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,241 +1339,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>5.333333333</c:v>
+                  <c:v>4.576190476190471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.666666667</c:v>
+                  <c:v>10.96190476190474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.2</c:v>
+                  <c:v>15.80952380952377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.35833333</c:v>
+                  <c:v>19.04761904761902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.96071429</c:v>
+                  <c:v>24.77619047619043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.28928571</c:v>
+                  <c:v>29.94285714285709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.25119048</c:v>
+                  <c:v>33.58095238095233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.41428571</c:v>
+                  <c:v>35.79523809523807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.77261905</c:v>
+                  <c:v>38.80476190476188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.53333333</c:v>
+                  <c:v>42.69523809523805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.63214286</c:v>
+                  <c:v>47.73333333333327</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.89404762</c:v>
+                  <c:v>51.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.83095238</c:v>
+                  <c:v>56.04761904761899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.13333333</c:v>
+                  <c:v>60.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.49047619</c:v>
+                  <c:v>63.82380952380947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.50357142999999</c:v>
+                  <c:v>67.13809523809519</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.64166667</c:v>
+                  <c:v>69.6190476190476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.5047619</c:v>
+                  <c:v>73.18095238095233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>88.13928571</c:v>
+                  <c:v>75.53809523809521</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92.31785714</c:v>
+                  <c:v>79.5428571428571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.26071429</c:v>
+                  <c:v>82.78571428571424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99.99285714</c:v>
+                  <c:v>86.78571428571422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103.5952381</c:v>
+                  <c:v>89.47619047619044</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107.1738095</c:v>
+                  <c:v>94.5999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.277381</c:v>
+                  <c:v>99.30476190476155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>113.2595238</c:v>
+                  <c:v>102.738095238095</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115.5833333</c:v>
+                  <c:v>106.0333333333329</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117.9607143</c:v>
+                  <c:v>108.7999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119.7416667</c:v>
+                  <c:v>110.2142857142855</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>121.9047619</c:v>
+                  <c:v>113.1761904761901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>124.1333333</c:v>
+                  <c:v>116.6571428571425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>126.7678571</c:v>
+                  <c:v>120.1476190476187</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>129.7238095</c:v>
+                  <c:v>122.9904761904758</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>133.5178571</c:v>
+                  <c:v>124.9238095238092</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>137.1464286</c:v>
+                  <c:v>129.0666666666663</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>140.6297619</c:v>
+                  <c:v>131.5666666666661</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.4047619</c:v>
+                  <c:v>134.1095238095232</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>145.4690476</c:v>
+                  <c:v>138.2428571428567</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>147.8357143</c:v>
+                  <c:v>140.9904761904756</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>149.9345238</c:v>
+                  <c:v>144.4380952380947</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>152.1761905</c:v>
+                  <c:v>145.4714285714283</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>154.1940476</c:v>
+                  <c:v>147.680952380952</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>156.2964286</c:v>
+                  <c:v>148.8047619047614</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>158.6119048</c:v>
+                  <c:v>151.3142857142851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>161.677381</c:v>
+                  <c:v>152.5238095238091</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>164.6619048</c:v>
+                  <c:v>154.9285714285711</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>168.0547619</c:v>
+                  <c:v>157.1904761904759</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>171.2654762</c:v>
+                  <c:v>158.6285714285709</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>175.1035714</c:v>
+                  <c:v>159.3666666666664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>179.0214286</c:v>
+                  <c:v>161.6095238095232</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>183.0071429</c:v>
+                  <c:v>162.6952380952375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>186.4833333</c:v>
+                  <c:v>164.0238095238091</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>189.4702381</c:v>
+                  <c:v>165.1095238095233</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>192.6083333</c:v>
+                  <c:v>167.1904761904757</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>195.2261905</c:v>
+                  <c:v>168.9190476190472</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>197.3369048</c:v>
+                  <c:v>171.0999999999996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>198.8666667</c:v>
+                  <c:v>173.7380952380947</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>200.6666667</c:v>
+                  <c:v>176.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>203.1916667</c:v>
+                  <c:v>179.3523809523804</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>205.3797619</c:v>
+                  <c:v>181.2904761904756</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>207.0214286</c:v>
+                  <c:v>182.9238095238091</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>208.5797619</c:v>
+                  <c:v>184.9428571428566</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>210.8238095</c:v>
+                  <c:v>187.5952380952374</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>212.4797619</c:v>
+                  <c:v>189.0904761904757</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>213.7297619</c:v>
+                  <c:v>190.328571428571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>214.777381</c:v>
+                  <c:v>191.6333333333328</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>216.0357143</c:v>
+                  <c:v>191.2142857142853</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>217.5880952</c:v>
+                  <c:v>191.8666666666664</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>218.9321429</c:v>
+                  <c:v>192.4666666666663</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>219.5571429</c:v>
+                  <c:v>194.523809523809</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>218.8416667</c:v>
+                  <c:v>196.2428571428566</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>217.7892857</c:v>
+                  <c:v>196.8619047619044</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>216.3761905</c:v>
+                  <c:v>197.7571428571425</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.347619</c:v>
+                  <c:v>198.3666666666663</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.8178571</c:v>
+                  <c:v>198.4190476190472</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.3309524</c:v>
+                  <c:v>200.4857142857137</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0488095</c:v>
+                  <c:v>202.0619047619043</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.7202381</c:v>
+                  <c:v>201.7523809523807</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.3869048</c:v>
+                  <c:v>201.2285714285713</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1582,7 +1592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>taste0(DocPopMinor)</c:v>
+                  <c:v>Taste 0 (DocPop_MajorMinor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,241 +1607,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>-0.511111111</c:v>
+                  <c:v>0.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.322222222</c:v>
+                  <c:v>-1.300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.477777778</c:v>
+                  <c:v>-1.28888888888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.508333333</c:v>
+                  <c:v>0.366666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.769444444</c:v>
+                  <c:v>-0.500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.358333333</c:v>
+                  <c:v>-0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.736111111</c:v>
+                  <c:v>0.511111111111105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7</c:v>
+                  <c:v>2.966666666666662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.263888889</c:v>
+                  <c:v>4.933333333333324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.122222222</c:v>
+                  <c:v>5.899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.002777778</c:v>
+                  <c:v>5.74444444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.869444444</c:v>
+                  <c:v>6.399999999999979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.727777778</c:v>
+                  <c:v>6.999999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6</c:v>
+                  <c:v>7.922222222222194</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6</c:v>
+                  <c:v>8.899999999999964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.658333333</c:v>
+                  <c:v>10.53333333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.969444444</c:v>
+                  <c:v>12.98888888888885</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.544444444</c:v>
+                  <c:v>14.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.841666667</c:v>
+                  <c:v>16.68888888888885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.013888889</c:v>
+                  <c:v>17.56666666666663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.613888889</c:v>
+                  <c:v>19.18888888888887</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.861111111</c:v>
+                  <c:v>20.09999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.088888889</c:v>
+                  <c:v>22.28888888888884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.694444444</c:v>
+                  <c:v>21.97777777777774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.075</c:v>
+                  <c:v>22.27777777777773</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.89444444</c:v>
+                  <c:v>23.71111111111107</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.93888889</c:v>
+                  <c:v>25.45555555555551</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.09166667</c:v>
+                  <c:v>27.58888888888884</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.74722222</c:v>
+                  <c:v>30.89999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.32222222</c:v>
+                  <c:v>32.78888888888884</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.16666667</c:v>
+                  <c:v>34.17777777777773</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.88611111</c:v>
+                  <c:v>35.75555555555552</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.86666667</c:v>
+                  <c:v>37.62222222222216</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.525</c:v>
+                  <c:v>40.72222222222217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.58055556</c:v>
+                  <c:v>41.48888888888885</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.66388889</c:v>
+                  <c:v>44.11111111111107</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.77777778</c:v>
+                  <c:v>46.28888888888883</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39.79444444</c:v>
+                  <c:v>47.19999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.52777778</c:v>
+                  <c:v>49.47777777777774</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.83055556</c:v>
+                  <c:v>50.91111111111108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48.05555556</c:v>
+                  <c:v>55.02222222222217</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.43611111</c:v>
+                  <c:v>57.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53.08611111</c:v>
+                  <c:v>61.51111111111108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.68333333</c:v>
+                  <c:v>63.97777777777772</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.63055556</c:v>
+                  <c:v>67.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58.94444444</c:v>
+                  <c:v>70.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59.81666667</c:v>
+                  <c:v>73.02222222222214</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61.28055556</c:v>
+                  <c:v>76.81111111111104</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.48055556</c:v>
+                  <c:v>80.91111111111106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.25</c:v>
+                  <c:v>83.6888888888888</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63.91666667</c:v>
+                  <c:v>87.65555555555548</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65.83888889000001</c:v>
+                  <c:v>91.1444444444443</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>67.83611111</c:v>
+                  <c:v>95.08888888888863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>70.70277778000001</c:v>
+                  <c:v>97.9444444444442</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73.30555556</c:v>
+                  <c:v>101.2222222222221</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>76.10277778</c:v>
+                  <c:v>104.0333333333331</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>80.23333332999999</c:v>
+                  <c:v>106.4333333333331</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>84.21111111</c:v>
+                  <c:v>108.8666666666663</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.31944444</c:v>
+                  <c:v>110.9777777777774</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>90.84722222</c:v>
+                  <c:v>114.1111111111106</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>95.31666667</c:v>
+                  <c:v>117.8888888888884</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>98.64722222</c:v>
+                  <c:v>120.6666666666662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>101.2111111</c:v>
+                  <c:v>123.2999999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>104.6583333</c:v>
+                  <c:v>126.8777777777774</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>108.5972222</c:v>
+                  <c:v>130.7888888888886</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>112.4638889</c:v>
+                  <c:v>134.7777777777776</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>116.25</c:v>
+                  <c:v>140.322222222222</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>119.6611111</c:v>
+                  <c:v>144.7777777777773</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>123.1916667</c:v>
+                  <c:v>149.344444444444</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>128.2666667</c:v>
+                  <c:v>152.4333333333329</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>133.9694444</c:v>
+                  <c:v>155.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>139.825</c:v>
+                  <c:v>160.4555555555551</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>145.9</c:v>
+                  <c:v>164.7888888888885</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>152.9555556</c:v>
+                  <c:v>169.6555555555552</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>159.325</c:v>
+                  <c:v>174.7888888888884</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>166.1166667</c:v>
+                  <c:v>178.1555555555552</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>174.375</c:v>
+                  <c:v>181.9555555555552</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>183.0416667</c:v>
+                  <c:v>187.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>191.7083333</c:v>
+                  <c:v>193.4555555555552</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -2387,11 +2397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102957752"/>
-        <c:axId val="2102960872"/>
+        <c:axId val="-2105685192"/>
+        <c:axId val="-2105679624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102957752"/>
+        <c:axId val="-2105685192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102960872"/>
+        <c:crossAx val="-2105679624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102960872"/>
+        <c:axId val="-2105679624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102957752"/>
+        <c:crossAx val="-2105685192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,16 +2493,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2513,16 +2523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2868,26 +2878,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="B81" sqref="A1:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="5" max="5" width="24" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2898,17 +2905,17 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>3.3933333330000002</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.393333333</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.3333333329999997</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-0.51111111099999995</v>
+      <c r="A2">
+        <v>2.826666666666664</v>
+      </c>
+      <c r="B2">
+        <v>2.0333333333333323</v>
+      </c>
+      <c r="E2">
+        <v>4.5761904761904715</v>
+      </c>
+      <c r="F2">
+        <v>0.22222222222222099</v>
       </c>
       <c r="I2" s="1">
         <v>2.6466666669999999</v>
@@ -2918,17 +2925,17 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>5.7816666669999996</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.1050000000000004</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.6666666670000003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3222222220000002</v>
+      <c r="A3">
+        <v>4.3133333333333219</v>
+      </c>
+      <c r="B3">
+        <v>5.3466666666666587</v>
+      </c>
+      <c r="E3">
+        <v>10.961904761904744</v>
+      </c>
+      <c r="F3">
+        <v>-1.3000000000000007</v>
       </c>
       <c r="I3" s="1">
         <v>5.0049999999999999</v>
@@ -2938,17 +2945,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>9.6983333330000008</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.2483333329999997</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.4777777780000001</v>
+      <c r="A4">
+        <v>6.1866666666666577</v>
+      </c>
+      <c r="B4">
+        <v>8.3466666666666463</v>
+      </c>
+      <c r="E4">
+        <v>15.809523809523768</v>
+      </c>
+      <c r="F4">
+        <v>-1.2888888888888901</v>
       </c>
       <c r="I4" s="1">
         <v>7.5750000000000002</v>
@@ -2958,17 +2965,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>13.32</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.1866666669999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13.358333330000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.5083333330000004</v>
+      <c r="A5">
+        <v>8.893333333333322</v>
+      </c>
+      <c r="B5">
+        <v>10.533333333333312</v>
+      </c>
+      <c r="E5">
+        <v>19.047619047619023</v>
+      </c>
+      <c r="F5">
+        <v>0.36666666666666625</v>
       </c>
       <c r="I5" s="1">
         <v>10.3</v>
@@ -2978,17 +2985,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>16.605</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.3616666669999997</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16.960714289999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.7694444440000003</v>
+      <c r="A6">
+        <v>10.299999999999986</v>
+      </c>
+      <c r="B6">
+        <v>13.846666666666644</v>
+      </c>
+      <c r="E6">
+        <v>24.776190476190429</v>
+      </c>
+      <c r="F6">
+        <v>-0.50000000000000322</v>
       </c>
       <c r="I6" s="1">
         <v>12.54</v>
@@ -2998,17 +3005,17 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>19.774999999999999</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.0516666669999992</v>
-      </c>
-      <c r="E7" s="1">
-        <v>21.289285710000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.358333333</v>
+      <c r="A7">
+        <v>12.573333333333318</v>
+      </c>
+      <c r="B7">
+        <v>16.413333333333298</v>
+      </c>
+      <c r="E7">
+        <v>29.942857142857086</v>
+      </c>
+      <c r="F7">
+        <v>-0.73333333333333273</v>
       </c>
       <c r="I7" s="1">
         <v>14.983333330000001</v>
@@ -3018,17 +3025,17 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>22.68333333</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11.096666669999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>26.251190480000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7.7361111109999996</v>
+      <c r="A8">
+        <v>14.993333333333315</v>
+      </c>
+      <c r="B8">
+        <v>18.566666666666652</v>
+      </c>
+      <c r="E8">
+        <v>33.580952380952333</v>
+      </c>
+      <c r="F8">
+        <v>0.51111111111110508</v>
       </c>
       <c r="I8" s="1">
         <v>17.483333330000001</v>
@@ -3038,17 +3045,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>25.463333330000001</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12.51</v>
-      </c>
-      <c r="E9" s="1">
-        <v>31.414285710000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7.7</v>
+      <c r="A9">
+        <v>18.786666666666623</v>
+      </c>
+      <c r="B9">
+        <v>19.953333333333312</v>
+      </c>
+      <c r="E9">
+        <v>35.795238095238076</v>
+      </c>
+      <c r="F9">
+        <v>2.9666666666666623</v>
       </c>
       <c r="I9" s="1">
         <v>19.698333330000001</v>
@@ -3058,17 +3065,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>27.861666670000002</v>
-      </c>
-      <c r="B10" s="1">
-        <v>13.971666669999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>36.772619050000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7.2638888890000004</v>
+      <c r="A10">
+        <v>23.48666666666664</v>
+      </c>
+      <c r="B10">
+        <v>20.053333333333324</v>
+      </c>
+      <c r="E10">
+        <v>38.804761904761875</v>
+      </c>
+      <c r="F10">
+        <v>4.9333333333333247</v>
       </c>
       <c r="I10" s="1">
         <v>22.33666667</v>
@@ -3078,17 +3085,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>30.93</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15.53</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42.533333329999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6.1222222220000004</v>
+      <c r="A11">
+        <v>25.946666666666641</v>
+      </c>
+      <c r="B11">
+        <v>22.559999999999981</v>
+      </c>
+      <c r="E11">
+        <v>42.695238095238054</v>
+      </c>
+      <c r="F11">
+        <v>5.899999999999995</v>
       </c>
       <c r="I11" s="1">
         <v>24.971666670000001</v>
@@ -3098,17 +3105,17 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>34.43</v>
-      </c>
-      <c r="B12" s="1">
-        <v>16.99666667</v>
-      </c>
-      <c r="E12" s="1">
-        <v>47.632142860000002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6.0027777779999996</v>
+      <c r="A12">
+        <v>29.433333333333291</v>
+      </c>
+      <c r="B12">
+        <v>23.746666666666648</v>
+      </c>
+      <c r="E12">
+        <v>47.733333333333277</v>
+      </c>
+      <c r="F12">
+        <v>5.74444444444444</v>
       </c>
       <c r="I12" s="1">
         <v>27.425000000000001</v>
@@ -3118,17 +3125,17 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>37.875</v>
-      </c>
-      <c r="B13" s="1">
-        <v>18.451666670000002</v>
-      </c>
-      <c r="E13" s="1">
-        <v>52.894047620000002</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5.869444444</v>
+      <c r="A13">
+        <v>33.6533333333333</v>
+      </c>
+      <c r="B13">
+        <v>24.459999999999958</v>
+      </c>
+      <c r="E13">
+        <v>51.999999999999964</v>
+      </c>
+      <c r="F13">
+        <v>6.399999999999979</v>
       </c>
       <c r="I13" s="1">
         <v>29.664999999999999</v>
@@ -3138,17 +3145,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>41.451666670000002</v>
-      </c>
-      <c r="B14" s="1">
-        <v>19.375</v>
-      </c>
-      <c r="E14" s="1">
-        <v>57.830952379999999</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5.7277777780000001</v>
+      <c r="A14">
+        <v>35.559999999999981</v>
+      </c>
+      <c r="B14">
+        <v>27.366666666666628</v>
+      </c>
+      <c r="E14">
+        <v>56.047619047618994</v>
+      </c>
+      <c r="F14">
+        <v>6.9999999999999858</v>
       </c>
       <c r="I14" s="1">
         <v>32.35166667</v>
@@ -3158,17 +3165,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>45.39833333</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20.408333330000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>63.133333329999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.6</v>
+      <c r="A15">
+        <v>37.613333333333301</v>
+      </c>
+      <c r="B15">
+        <v>30.073333333333302</v>
+      </c>
+      <c r="E15">
+        <v>60.142857142857096</v>
+      </c>
+      <c r="F15">
+        <v>7.9222222222221941</v>
       </c>
       <c r="I15" s="1">
         <v>34.628333329999997</v>
@@ -3178,17 +3185,17 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>48.693333330000002</v>
-      </c>
-      <c r="B16" s="1">
-        <v>21.42</v>
-      </c>
-      <c r="E16" s="1">
-        <v>68.490476189999995</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.6</v>
+      <c r="A16">
+        <v>38.206666666666642</v>
+      </c>
+      <c r="B16">
+        <v>34.493333333333311</v>
+      </c>
+      <c r="E16">
+        <v>63.823809523809473</v>
+      </c>
+      <c r="F16">
+        <v>8.8999999999999648</v>
       </c>
       <c r="I16" s="1">
         <v>37.14833333</v>
@@ -3198,17 +3205,17 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>51.91</v>
-      </c>
-      <c r="B17" s="1">
-        <v>22.39</v>
-      </c>
-      <c r="E17" s="1">
-        <v>73.503571429999994</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4.6583333329999999</v>
+      <c r="A17">
+        <v>40.61999999999999</v>
+      </c>
+      <c r="B17">
+        <v>36.993333333333304</v>
+      </c>
+      <c r="E17">
+        <v>67.13809523809519</v>
+      </c>
+      <c r="F17">
+        <v>10.533333333333317</v>
       </c>
       <c r="I17" s="1">
         <v>39.505000000000003</v>
@@ -3218,17 +3225,17 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>55.286666670000002</v>
-      </c>
-      <c r="B18" s="1">
-        <v>23.92</v>
-      </c>
-      <c r="E18" s="1">
-        <v>78.641666670000006</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.9694444440000001</v>
+      <c r="A18">
+        <v>43.42666666666662</v>
+      </c>
+      <c r="B18">
+        <v>38.999999999999986</v>
+      </c>
+      <c r="E18">
+        <v>69.619047619047592</v>
+      </c>
+      <c r="F18">
+        <v>12.988888888888852</v>
       </c>
       <c r="I18" s="1">
         <v>41.971666669999998</v>
@@ -3238,17 +3245,17 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>58.515000000000001</v>
-      </c>
-      <c r="B19" s="1">
-        <v>25.818333330000002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>83.504761900000005</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3.5444444439999998</v>
+      <c r="A19">
+        <v>47.32666666666664</v>
+      </c>
+      <c r="B19">
+        <v>39.866666666666632</v>
+      </c>
+      <c r="E19">
+        <v>73.180952380952334</v>
+      </c>
+      <c r="F19">
+        <v>14.166666666666632</v>
       </c>
       <c r="I19" s="1">
         <v>44.414999999999999</v>
@@ -3258,17 +3265,17 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>61.353333329999998</v>
-      </c>
-      <c r="B20" s="1">
-        <v>28.166666670000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>88.139285709999996</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3.8416666670000001</v>
+      <c r="A20">
+        <v>50.753333333333295</v>
+      </c>
+      <c r="B20">
+        <v>41.433333333333309</v>
+      </c>
+      <c r="E20">
+        <v>75.53809523809521</v>
+      </c>
+      <c r="F20">
+        <v>16.688888888888847</v>
       </c>
       <c r="I20" s="1">
         <v>47.073333329999997</v>
@@ -3278,17 +3285,17 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>64.415000000000006</v>
-      </c>
-      <c r="B21" s="1">
-        <v>30.53166667</v>
-      </c>
-      <c r="E21" s="1">
-        <v>92.317857140000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4.0138888890000004</v>
+      <c r="A21">
+        <v>51.793333333333308</v>
+      </c>
+      <c r="B21">
+        <v>45.266666666666637</v>
+      </c>
+      <c r="E21">
+        <v>79.542857142857102</v>
+      </c>
+      <c r="F21">
+        <v>17.566666666666627</v>
       </c>
       <c r="I21" s="1">
         <v>49.716666670000002</v>
@@ -3298,17 +3305,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>66.833333330000002</v>
-      </c>
-      <c r="B22" s="1">
-        <v>32.466666670000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>96.260714289999996</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4.613888889</v>
+      <c r="A22">
+        <v>55.046666666666638</v>
+      </c>
+      <c r="B22">
+        <v>46.859999999999971</v>
+      </c>
+      <c r="E22">
+        <v>82.785714285714249</v>
+      </c>
+      <c r="F22">
+        <v>19.188888888888865</v>
       </c>
       <c r="I22" s="1">
         <v>52.026666669999997</v>
@@ -3318,17 +3325,17 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>69.678333330000001</v>
-      </c>
-      <c r="B23" s="1">
-        <v>34.381666670000001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>99.992857139999998</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5.8611111109999996</v>
+      <c r="A23">
+        <v>57.673333333333289</v>
+      </c>
+      <c r="B23">
+        <v>49.099999999999973</v>
+      </c>
+      <c r="E23">
+        <v>86.785714285714221</v>
+      </c>
+      <c r="F23">
+        <v>20.099999999999952</v>
       </c>
       <c r="I23" s="1">
         <v>54.878333329999997</v>
@@ -3338,17 +3345,17 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>72.608333329999994</v>
-      </c>
-      <c r="B24" s="1">
-        <v>36.484999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>103.5952381</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7.0888888889999997</v>
+      <c r="A24">
+        <v>59.613333333333287</v>
+      </c>
+      <c r="B24">
+        <v>52.153333333333308</v>
+      </c>
+      <c r="E24">
+        <v>89.476190476190439</v>
+      </c>
+      <c r="F24">
+        <v>22.288888888888842</v>
       </c>
       <c r="I24" s="1">
         <v>57.048333329999998</v>
@@ -3358,17 +3365,17 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>75.846666670000005</v>
-      </c>
-      <c r="B25" s="1">
-        <v>38.22666667</v>
-      </c>
-      <c r="E25" s="1">
-        <v>107.1738095</v>
-      </c>
-      <c r="F25" s="1">
-        <v>8.6944444440000002</v>
+      <c r="A25">
+        <v>63.113333333333287</v>
+      </c>
+      <c r="B25">
+        <v>53.426666666666641</v>
+      </c>
+      <c r="E25">
+        <v>94.599999999999795</v>
+      </c>
+      <c r="F25">
+        <v>21.977777777777742</v>
       </c>
       <c r="I25" s="1">
         <v>59.541666669999998</v>
@@ -3378,17 +3385,17 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>79.238333330000003</v>
-      </c>
-      <c r="B26" s="1">
-        <v>40.021666670000002</v>
-      </c>
-      <c r="E26" s="1">
-        <v>110.27738100000001</v>
-      </c>
-      <c r="F26" s="1">
-        <v>11.074999999999999</v>
+      <c r="A26">
+        <v>66.253333333333302</v>
+      </c>
+      <c r="B26">
+        <v>55.353333333333296</v>
+      </c>
+      <c r="E26">
+        <v>99.304761904761548</v>
+      </c>
+      <c r="F26">
+        <v>22.277777777777732</v>
       </c>
       <c r="I26" s="1">
         <v>62.463333329999998</v>
@@ -3398,17 +3405,17 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>82.563333330000006</v>
-      </c>
-      <c r="B27" s="1">
-        <v>41.856666670000003</v>
-      </c>
-      <c r="E27" s="1">
-        <v>113.2595238</v>
-      </c>
-      <c r="F27" s="1">
-        <v>12.894444439999999</v>
+      <c r="A27">
+        <v>67.053333333333313</v>
+      </c>
+      <c r="B27">
+        <v>59.666666666666643</v>
+      </c>
+      <c r="E27">
+        <v>102.738095238095</v>
+      </c>
+      <c r="F27">
+        <v>23.71111111111107</v>
       </c>
       <c r="I27" s="1">
         <v>64.894999999999996</v>
@@ -3418,17 +3425,17 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>85.66333333</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43.743333329999999</v>
-      </c>
-      <c r="E28" s="1">
-        <v>115.58333330000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>14.938888889999999</v>
+      <c r="A28">
+        <v>68.639999999999944</v>
+      </c>
+      <c r="B28">
+        <v>62.759999999999955</v>
+      </c>
+      <c r="E28">
+        <v>106.03333333333292</v>
+      </c>
+      <c r="F28">
+        <v>25.455555555555506</v>
       </c>
       <c r="I28" s="1">
         <v>67.525000000000006</v>
@@ -3438,17 +3445,17 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <v>88.606666669999996</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45.72</v>
-      </c>
-      <c r="E29" s="1">
-        <v>117.96071430000001</v>
-      </c>
-      <c r="F29" s="1">
-        <v>18.091666669999999</v>
+      <c r="A29">
+        <v>70.539999999999978</v>
+      </c>
+      <c r="B29">
+        <v>65.906666666666652</v>
+      </c>
+      <c r="E29">
+        <v>108.79999999999946</v>
+      </c>
+      <c r="F29">
+        <v>27.588888888888835</v>
       </c>
       <c r="I29" s="1">
         <v>69.894999999999996</v>
@@ -3458,17 +3465,17 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1">
-        <v>91.935000000000002</v>
-      </c>
-      <c r="B30" s="1">
-        <v>47.571666669999999</v>
-      </c>
-      <c r="E30" s="1">
-        <v>119.7416667</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20.747222220000001</v>
+      <c r="A30">
+        <v>71.539999999999964</v>
+      </c>
+      <c r="B30">
+        <v>69.67999999999995</v>
+      </c>
+      <c r="E30">
+        <v>110.21428571428551</v>
+      </c>
+      <c r="F30">
+        <v>30.89999999999997</v>
       </c>
       <c r="I30" s="1">
         <v>72.463333329999998</v>
@@ -3478,17 +3485,17 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="1">
-        <v>94.265000000000001</v>
-      </c>
-      <c r="B31" s="1">
-        <v>50.195</v>
-      </c>
-      <c r="E31" s="1">
-        <v>121.9047619</v>
-      </c>
-      <c r="F31" s="1">
-        <v>23.32222222</v>
+      <c r="A31">
+        <v>73.95999999999998</v>
+      </c>
+      <c r="B31">
+        <v>72.273333333333284</v>
+      </c>
+      <c r="E31">
+        <v>113.17619047619014</v>
+      </c>
+      <c r="F31">
+        <v>32.788888888888849</v>
       </c>
       <c r="I31" s="1">
         <v>74.993333329999999</v>
@@ -3498,17 +3505,17 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>96.916666669999998</v>
-      </c>
-      <c r="B32" s="1">
-        <v>52.49</v>
-      </c>
-      <c r="E32" s="1">
-        <v>124.1333333</v>
-      </c>
-      <c r="F32" s="1">
-        <v>25.166666670000001</v>
+      <c r="A32">
+        <v>75.839999999999961</v>
+      </c>
+      <c r="B32">
+        <v>75.266666666666623</v>
+      </c>
+      <c r="E32">
+        <v>116.65714285714247</v>
+      </c>
+      <c r="F32">
+        <v>34.177777777777735</v>
       </c>
       <c r="I32" s="1">
         <v>77.676666670000003</v>
@@ -3518,17 +3525,17 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="1">
-        <v>100.15</v>
-      </c>
-      <c r="B33" s="1">
-        <v>54.73</v>
-      </c>
-      <c r="E33" s="1">
-        <v>126.7678571</v>
-      </c>
-      <c r="F33" s="1">
-        <v>26.886111110000002</v>
+      <c r="A33">
+        <v>78.179999999999964</v>
+      </c>
+      <c r="B33">
+        <v>77.719999999999914</v>
+      </c>
+      <c r="E33">
+        <v>120.14761904761872</v>
+      </c>
+      <c r="F33">
+        <v>35.755555555555517</v>
       </c>
       <c r="I33" s="1">
         <v>79.89833333</v>
@@ -3538,17 +3545,17 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="1">
-        <v>102.77666670000001</v>
-      </c>
-      <c r="B34" s="1">
-        <v>57.23</v>
-      </c>
-      <c r="E34" s="1">
-        <v>129.72380949999999</v>
-      </c>
-      <c r="F34" s="1">
-        <v>28.866666670000001</v>
+      <c r="A34">
+        <v>81.973333333333301</v>
+      </c>
+      <c r="B34">
+        <v>78.886666666666628</v>
+      </c>
+      <c r="E34">
+        <v>122.99047619047576</v>
+      </c>
+      <c r="F34">
+        <v>37.622222222222163</v>
       </c>
       <c r="I34" s="1">
         <v>82.468333329999993</v>
@@ -3558,17 +3565,17 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1">
-        <v>105.005</v>
-      </c>
-      <c r="B35" s="1">
-        <v>59.528333330000002</v>
-      </c>
-      <c r="E35" s="1">
-        <v>133.51785709999999</v>
-      </c>
-      <c r="F35" s="1">
-        <v>30.524999999999999</v>
+      <c r="A35">
+        <v>85.906666666666567</v>
+      </c>
+      <c r="B35">
+        <v>79.859999999999971</v>
+      </c>
+      <c r="E35">
+        <v>124.92380952380918</v>
+      </c>
+      <c r="F35">
+        <v>40.722222222222172</v>
       </c>
       <c r="I35" s="1">
         <v>84.88</v>
@@ -3578,17 +3585,17 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1">
-        <v>107.58333330000001</v>
-      </c>
-      <c r="B36" s="1">
-        <v>61.883333329999999</v>
-      </c>
-      <c r="E36" s="1">
-        <v>137.14642860000001</v>
-      </c>
-      <c r="F36" s="1">
-        <v>32.580555560000001</v>
+      <c r="A36">
+        <v>87.573333333333281</v>
+      </c>
+      <c r="B36">
+        <v>83.186666666666653</v>
+      </c>
+      <c r="E36">
+        <v>129.06666666666629</v>
+      </c>
+      <c r="F36">
+        <v>41.488888888888852</v>
       </c>
       <c r="I36" s="1">
         <v>87.52</v>
@@ -3598,17 +3605,17 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1">
-        <v>110.33499999999999</v>
-      </c>
-      <c r="B37" s="1">
-        <v>63.871666670000003</v>
-      </c>
-      <c r="E37" s="1">
-        <v>140.62976190000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>34.663888890000003</v>
+      <c r="A37">
+        <v>88.986666666666594</v>
+      </c>
+      <c r="B37">
+        <v>86.626666666666608</v>
+      </c>
+      <c r="E37">
+        <v>131.56666666666609</v>
+      </c>
+      <c r="F37">
+        <v>44.111111111111072</v>
       </c>
       <c r="I37" s="1">
         <v>90.233333329999994</v>
@@ -3618,17 +3625,17 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="1">
-        <v>112.5433333</v>
-      </c>
-      <c r="B38" s="1">
-        <v>65.916666669999998</v>
-      </c>
-      <c r="E38" s="1">
-        <v>143.40476190000001</v>
-      </c>
-      <c r="F38" s="1">
-        <v>36.777777780000001</v>
+      <c r="A38">
+        <v>91.42666666666652</v>
+      </c>
+      <c r="B38">
+        <v>89.099999999999952</v>
+      </c>
+      <c r="E38">
+        <v>134.10952380952318</v>
+      </c>
+      <c r="F38">
+        <v>46.288888888888835</v>
       </c>
       <c r="I38" s="1">
         <v>93.021666670000002</v>
@@ -3638,17 +3645,17 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1">
-        <v>114.8266667</v>
-      </c>
-      <c r="B39" s="1">
-        <v>68.393333330000004</v>
-      </c>
-      <c r="E39" s="1">
-        <v>145.46904760000001</v>
-      </c>
-      <c r="F39" s="1">
-        <v>39.794444439999999</v>
+      <c r="A39">
+        <v>93.926666666666591</v>
+      </c>
+      <c r="B39">
+        <v>91.586666666666616</v>
+      </c>
+      <c r="E39">
+        <v>138.24285714285671</v>
+      </c>
+      <c r="F39">
+        <v>47.199999999999946</v>
       </c>
       <c r="I39" s="1">
         <v>95.47666667</v>
@@ -3658,17 +3665,17 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1">
-        <v>117.36499999999999</v>
-      </c>
-      <c r="B40" s="1">
-        <v>70.515000000000001</v>
-      </c>
-      <c r="E40" s="1">
-        <v>147.83571430000001</v>
-      </c>
-      <c r="F40" s="1">
-        <v>42.527777780000001</v>
+      <c r="A40">
+        <v>96.193333333333172</v>
+      </c>
+      <c r="B40">
+        <v>94.213333333333225</v>
+      </c>
+      <c r="E40">
+        <v>140.99047619047562</v>
+      </c>
+      <c r="F40">
+        <v>49.477777777777739</v>
       </c>
       <c r="I40" s="1">
         <v>97.753333330000004</v>
@@ -3678,17 +3685,17 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>120.06833330000001</v>
-      </c>
-      <c r="B41" s="1">
-        <v>72.858333329999994</v>
-      </c>
-      <c r="E41" s="1">
-        <v>149.93452379999999</v>
-      </c>
-      <c r="F41" s="1">
-        <v>44.830555560000001</v>
+      <c r="A41">
+        <v>97.246666666666471</v>
+      </c>
+      <c r="B41">
+        <v>98.153333333333222</v>
+      </c>
+      <c r="E41">
+        <v>144.43809523809472</v>
+      </c>
+      <c r="F41">
+        <v>50.911111111111083</v>
       </c>
       <c r="I41" s="1">
         <v>100.2583333</v>
@@ -3698,17 +3705,17 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>122.22</v>
-      </c>
-      <c r="B42" s="1">
-        <v>75.073333329999997</v>
-      </c>
-      <c r="E42" s="1">
-        <v>152.17619049999999</v>
-      </c>
-      <c r="F42" s="1">
-        <v>48.055555560000002</v>
+      <c r="A42">
+        <v>99.853333333333225</v>
+      </c>
+      <c r="B42">
+        <v>100.47333333333313</v>
+      </c>
+      <c r="E42">
+        <v>145.47142857142833</v>
+      </c>
+      <c r="F42">
+        <v>55.022222222222169</v>
       </c>
       <c r="I42" s="1">
         <v>102.7133333</v>
@@ -3718,17 +3725,17 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1">
-        <v>124.715</v>
-      </c>
-      <c r="B43" s="1">
-        <v>77.191666670000004</v>
-      </c>
-      <c r="E43" s="1">
-        <v>154.1940476</v>
-      </c>
-      <c r="F43" s="1">
-        <v>50.436111109999999</v>
+      <c r="A43">
+        <v>102.21333333333334</v>
+      </c>
+      <c r="B43">
+        <v>102.95333333333315</v>
+      </c>
+      <c r="E43">
+        <v>147.68095238095191</v>
+      </c>
+      <c r="F43">
+        <v>57.633333333333304</v>
       </c>
       <c r="I43" s="1">
         <v>105.3</v>
@@ -3738,17 +3745,17 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1">
-        <v>127.6316667</v>
-      </c>
-      <c r="B44" s="1">
-        <v>79.441666670000004</v>
-      </c>
-      <c r="E44" s="1">
-        <v>156.29642860000001</v>
-      </c>
-      <c r="F44" s="1">
-        <v>53.086111109999997</v>
+      <c r="A44">
+        <v>105.17999999999981</v>
+      </c>
+      <c r="B44">
+        <v>104.98666666666638</v>
+      </c>
+      <c r="E44">
+        <v>148.80476190476139</v>
+      </c>
+      <c r="F44">
+        <v>61.511111111111084</v>
       </c>
       <c r="I44" s="1">
         <v>107.67</v>
@@ -3758,17 +3765,17 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1">
-        <v>130.15166669999999</v>
-      </c>
-      <c r="B45" s="1">
-        <v>81.795000000000002</v>
-      </c>
-      <c r="E45" s="1">
-        <v>158.61190479999999</v>
-      </c>
-      <c r="F45" s="1">
-        <v>55.683333330000004</v>
+      <c r="A45">
+        <v>108.23999999999964</v>
+      </c>
+      <c r="B45">
+        <v>106.81333333333319</v>
+      </c>
+      <c r="E45">
+        <v>151.31428571428509</v>
+      </c>
+      <c r="F45">
+        <v>63.977777777777725</v>
       </c>
       <c r="I45" s="1">
         <v>110.375</v>
@@ -3778,17 +3785,17 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1">
-        <v>132.43333329999999</v>
-      </c>
-      <c r="B46" s="1">
-        <v>84.066666670000004</v>
-      </c>
-      <c r="E46" s="1">
-        <v>161.677381</v>
-      </c>
-      <c r="F46" s="1">
-        <v>57.630555559999998</v>
+      <c r="A46">
+        <v>110.81333333333305</v>
+      </c>
+      <c r="B46">
+        <v>109.23999999999978</v>
+      </c>
+      <c r="E46">
+        <v>152.52380952380909</v>
+      </c>
+      <c r="F46">
+        <v>67.799999999999955</v>
       </c>
       <c r="I46" s="1">
         <v>112.80500000000001</v>
@@ -3798,17 +3805,17 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1">
-        <v>134.60666670000001</v>
-      </c>
-      <c r="B47" s="1">
-        <v>86.133333329999999</v>
-      </c>
-      <c r="E47" s="1">
-        <v>164.6619048</v>
-      </c>
-      <c r="F47" s="1">
-        <v>58.944444439999998</v>
+      <c r="A47">
+        <v>112.92666666666642</v>
+      </c>
+      <c r="B47">
+        <v>112.11333333333303</v>
+      </c>
+      <c r="E47">
+        <v>154.9285714285711</v>
+      </c>
+      <c r="F47">
+        <v>70.299999999999955</v>
       </c>
       <c r="I47" s="1">
         <v>115.33499999999999</v>
@@ -3818,17 +3825,17 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1">
-        <v>136.68833330000001</v>
-      </c>
-      <c r="B48" s="1">
-        <v>88.738333330000003</v>
-      </c>
-      <c r="E48" s="1">
-        <v>168.05476189999999</v>
-      </c>
-      <c r="F48" s="1">
-        <v>59.816666669999996</v>
+      <c r="A48">
+        <v>114.89999999999968</v>
+      </c>
+      <c r="B48">
+        <v>115.25999999999965</v>
+      </c>
+      <c r="E48">
+        <v>157.19047619047589</v>
+      </c>
+      <c r="F48">
+        <v>73.02222222222214</v>
       </c>
       <c r="I48" s="1">
         <v>117.99666670000001</v>
@@ -3838,17 +3845,17 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1">
-        <v>139.6416667</v>
-      </c>
-      <c r="B49" s="1">
-        <v>90.798333330000006</v>
-      </c>
-      <c r="E49" s="1">
-        <v>171.26547619999999</v>
-      </c>
-      <c r="F49" s="1">
-        <v>61.280555560000003</v>
+      <c r="A49">
+        <v>117.11333333333292</v>
+      </c>
+      <c r="B49">
+        <v>118.0333333333331</v>
+      </c>
+      <c r="E49">
+        <v>158.62857142857089</v>
+      </c>
+      <c r="F49">
+        <v>76.811111111111046</v>
       </c>
       <c r="I49" s="1">
         <v>120.4716667</v>
@@ -3858,17 +3865,17 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1">
-        <v>141.8833333</v>
-      </c>
-      <c r="B50" s="1">
-        <v>93.363333330000003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>175.10357139999999</v>
-      </c>
-      <c r="F50" s="1">
-        <v>62.480555559999999</v>
+      <c r="A50">
+        <v>119.96666666666631</v>
+      </c>
+      <c r="B50">
+        <v>120.13333333333298</v>
+      </c>
+      <c r="E50">
+        <v>159.36666666666639</v>
+      </c>
+      <c r="F50">
+        <v>80.911111111111069</v>
       </c>
       <c r="I50" s="1">
         <v>122.9766667</v>
@@ -3878,17 +3885,17 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1">
-        <v>143.6333333</v>
-      </c>
-      <c r="B51" s="1">
-        <v>95.986666670000005</v>
-      </c>
-      <c r="E51" s="1">
-        <v>179.02142860000001</v>
-      </c>
-      <c r="F51" s="1">
-        <v>63.25</v>
+      <c r="A51">
+        <v>122.19333333333289</v>
+      </c>
+      <c r="B51">
+        <v>122.85333333333301</v>
+      </c>
+      <c r="E51">
+        <v>161.60952380952318</v>
+      </c>
+      <c r="F51">
+        <v>83.688888888888798</v>
       </c>
       <c r="I51" s="1">
         <v>125.6083333</v>
@@ -3898,17 +3905,17 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1">
-        <v>145.37833330000001</v>
-      </c>
-      <c r="B52" s="1">
-        <v>99.028333329999995</v>
-      </c>
-      <c r="E52" s="1">
-        <v>183.00714289999999</v>
-      </c>
-      <c r="F52" s="1">
-        <v>63.916666669999998</v>
+      <c r="A52">
+        <v>125.07999999999959</v>
+      </c>
+      <c r="B52">
+        <v>124.95999999999972</v>
+      </c>
+      <c r="E52">
+        <v>162.6952380952375</v>
+      </c>
+      <c r="F52">
+        <v>87.65555555555548</v>
       </c>
       <c r="I52" s="1">
         <v>128.40833330000001</v>
@@ -3918,17 +3925,17 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1">
-        <v>147.2716667</v>
-      </c>
-      <c r="B53" s="1">
-        <v>101.76166670000001</v>
-      </c>
-      <c r="E53" s="1">
-        <v>186.4833333</v>
-      </c>
-      <c r="F53" s="1">
-        <v>65.838888890000007</v>
+      <c r="A53">
+        <v>128.1399999999997</v>
+      </c>
+      <c r="B53">
+        <v>127.05999999999952</v>
+      </c>
+      <c r="E53">
+        <v>164.02380952380912</v>
+      </c>
+      <c r="F53">
+        <v>91.144444444444304</v>
       </c>
       <c r="I53" s="1">
         <v>130.68333329999999</v>
@@ -3938,17 +3945,17 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1">
-        <v>148.69166670000001</v>
-      </c>
-      <c r="B54" s="1">
-        <v>105.1416667</v>
-      </c>
-      <c r="E54" s="1">
-        <v>189.47023809999999</v>
-      </c>
-      <c r="F54" s="1">
-        <v>67.836111110000004</v>
+      <c r="A54">
+        <v>129.87999999999971</v>
+      </c>
+      <c r="B54">
+        <v>130.14666666666631</v>
+      </c>
+      <c r="E54">
+        <v>165.1095238095233</v>
+      </c>
+      <c r="F54">
+        <v>95.088888888888633</v>
       </c>
       <c r="I54" s="1">
         <v>133.3016667</v>
@@ -3958,17 +3965,17 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1">
-        <v>150.0216667</v>
-      </c>
-      <c r="B55" s="1">
-        <v>108.965</v>
-      </c>
-      <c r="E55" s="1">
-        <v>192.6083333</v>
-      </c>
-      <c r="F55" s="1">
-        <v>70.702777780000005</v>
+      <c r="A55">
+        <v>132.13333333333298</v>
+      </c>
+      <c r="B55">
+        <v>132.83999999999969</v>
+      </c>
+      <c r="E55">
+        <v>167.19047619047569</v>
+      </c>
+      <c r="F55">
+        <v>97.944444444444201</v>
       </c>
       <c r="I55" s="1">
         <v>135.72333330000001</v>
@@ -3978,17 +3985,17 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1">
-        <v>151.03</v>
-      </c>
-      <c r="B56" s="1">
-        <v>113.0966667</v>
-      </c>
-      <c r="E56" s="1">
-        <v>195.2261905</v>
-      </c>
-      <c r="F56" s="1">
-        <v>73.305555560000002</v>
+      <c r="A56">
+        <v>135.00666666666629</v>
+      </c>
+      <c r="B56">
+        <v>135.03999999999968</v>
+      </c>
+      <c r="E56">
+        <v>168.91904761904721</v>
+      </c>
+      <c r="F56">
+        <v>101.22222222222207</v>
       </c>
       <c r="I56" s="1">
         <v>138.00333330000001</v>
@@ -3998,17 +4005,17 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1">
-        <v>152.01499999999999</v>
-      </c>
-      <c r="B57" s="1">
-        <v>117.2583333</v>
-      </c>
-      <c r="E57" s="1">
-        <v>197.33690480000001</v>
-      </c>
-      <c r="F57" s="1">
-        <v>76.102777779999997</v>
+      <c r="A57">
+        <v>137.57999999999961</v>
+      </c>
+      <c r="B57">
+        <v>137.62666666666627</v>
+      </c>
+      <c r="E57">
+        <v>171.0999999999996</v>
+      </c>
+      <c r="F57">
+        <v>104.0333333333331</v>
       </c>
       <c r="I57" s="1">
         <v>140.33666669999999</v>
@@ -4018,17 +4025,17 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>152.66499999999999</v>
-      </c>
-      <c r="B58" s="1">
-        <v>121.41500000000001</v>
-      </c>
-      <c r="E58" s="1">
-        <v>198.8666667</v>
-      </c>
-      <c r="F58" s="1">
-        <v>80.233333329999994</v>
+      <c r="A58">
+        <v>140.29999999999978</v>
+      </c>
+      <c r="B58">
+        <v>139.80666666666642</v>
+      </c>
+      <c r="E58">
+        <v>173.73809523809467</v>
+      </c>
+      <c r="F58">
+        <v>106.43333333333308</v>
       </c>
       <c r="I58" s="1">
         <v>142.9866667</v>
@@ -4038,17 +4045,17 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>153.565</v>
-      </c>
-      <c r="B59" s="1">
-        <v>125.355</v>
-      </c>
-      <c r="E59" s="1">
-        <v>200.66666670000001</v>
-      </c>
-      <c r="F59" s="1">
-        <v>84.211111110000004</v>
+      <c r="A59">
+        <v>142.113333333333</v>
+      </c>
+      <c r="B59">
+        <v>143.053333333333</v>
+      </c>
+      <c r="E59">
+        <v>176.2999999999997</v>
+      </c>
+      <c r="F59">
+        <v>108.86666666666633</v>
       </c>
       <c r="I59" s="1">
         <v>145.28166669999999</v>
@@ -4058,17 +4065,17 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>154.94333330000001</v>
-      </c>
-      <c r="B60" s="1">
-        <v>129.2366667</v>
-      </c>
-      <c r="E60" s="1">
-        <v>203.19166670000001</v>
-      </c>
-      <c r="F60" s="1">
-        <v>87.319444439999998</v>
+      <c r="A60">
+        <v>146.37999999999971</v>
+      </c>
+      <c r="B60">
+        <v>143.84666666666641</v>
+      </c>
+      <c r="E60">
+        <v>179.35238095238043</v>
+      </c>
+      <c r="F60">
+        <v>110.97777777777742</v>
       </c>
       <c r="I60" s="1">
         <v>147.88999999999999</v>
@@ -4078,17 +4085,17 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>156.02833330000001</v>
-      </c>
-      <c r="B61" s="1">
-        <v>133.53166669999999</v>
-      </c>
-      <c r="E61" s="1">
-        <v>205.37976190000001</v>
-      </c>
-      <c r="F61" s="1">
-        <v>90.847222220000006</v>
+      <c r="A61">
+        <v>149.273333333333</v>
+      </c>
+      <c r="B61">
+        <v>146.05999999999977</v>
+      </c>
+      <c r="E61">
+        <v>181.2904761904756</v>
+      </c>
+      <c r="F61">
+        <v>114.11111111111063</v>
       </c>
       <c r="I61" s="1">
         <v>150.59333330000001</v>
@@ -4098,17 +4105,17 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>157.40166669999999</v>
-      </c>
-      <c r="B62" s="1">
-        <v>137.67833329999999</v>
-      </c>
-      <c r="E62" s="1">
-        <v>207.02142860000001</v>
-      </c>
-      <c r="F62" s="1">
-        <v>95.316666670000004</v>
+      <c r="A62">
+        <v>151.42666666666628</v>
+      </c>
+      <c r="B62">
+        <v>148.82666666666628</v>
+      </c>
+      <c r="E62">
+        <v>182.9238095238091</v>
+      </c>
+      <c r="F62">
+        <v>117.88888888888843</v>
       </c>
       <c r="I62" s="1">
         <v>153.07166670000001</v>
@@ -4118,17 +4125,17 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>158.83500000000001</v>
-      </c>
-      <c r="B63" s="1">
-        <v>142.01166670000001</v>
-      </c>
-      <c r="E63" s="1">
-        <v>208.57976189999999</v>
-      </c>
-      <c r="F63" s="1">
-        <v>98.647222220000003</v>
+      <c r="A63">
+        <v>152.85999999999981</v>
+      </c>
+      <c r="B63">
+        <v>152.59999999999968</v>
+      </c>
+      <c r="E63">
+        <v>184.94285714285658</v>
+      </c>
+      <c r="F63">
+        <v>120.6666666666662</v>
       </c>
       <c r="I63" s="1">
         <v>155.6116667</v>
@@ -4138,17 +4145,17 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1">
-        <v>160.40333330000001</v>
-      </c>
-      <c r="B64" s="1">
-        <v>145.61000000000001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>210.82380950000001</v>
-      </c>
-      <c r="F64" s="1">
-        <v>101.2111111</v>
+      <c r="A64">
+        <v>154.5466666666664</v>
+      </c>
+      <c r="B64">
+        <v>155.9666666666663</v>
+      </c>
+      <c r="E64">
+        <v>187.59523809523745</v>
+      </c>
+      <c r="F64">
+        <v>123.2999999999995</v>
       </c>
       <c r="I64" s="1">
         <v>157.89833329999999</v>
@@ -4158,17 +4165,17 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="1">
-        <v>161.77000000000001</v>
-      </c>
-      <c r="B65" s="1">
-        <v>149.34333330000001</v>
-      </c>
-      <c r="E65" s="1">
-        <v>212.4797619</v>
-      </c>
-      <c r="F65" s="1">
-        <v>104.6583333</v>
+      <c r="A65">
+        <v>157.37333333333308</v>
+      </c>
+      <c r="B65">
+        <v>158.0799999999995</v>
+      </c>
+      <c r="E65">
+        <v>189.09047619047567</v>
+      </c>
+      <c r="F65">
+        <v>126.8777777777774</v>
       </c>
       <c r="I65" s="1">
         <v>160.18166669999999</v>
@@ -4178,17 +4185,17 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>163.8316667</v>
-      </c>
-      <c r="B66" s="1">
-        <v>152.375</v>
-      </c>
-      <c r="E66" s="1">
-        <v>213.7297619</v>
-      </c>
-      <c r="F66" s="1">
-        <v>108.5972222</v>
+      <c r="A66">
+        <v>160.1266666666663</v>
+      </c>
+      <c r="B66">
+        <v>160.48666666666639</v>
+      </c>
+      <c r="E66">
+        <v>190.32857142857102</v>
+      </c>
+      <c r="F66">
+        <v>130.78888888888861</v>
       </c>
       <c r="I66" s="1">
         <v>162.47333330000001</v>
@@ -4198,17 +4205,17 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>166.4483333</v>
-      </c>
-      <c r="B67" s="1">
-        <v>155.1983333</v>
-      </c>
-      <c r="E67" s="1">
-        <v>214.77738099999999</v>
-      </c>
-      <c r="F67" s="1">
-        <v>112.4638889</v>
+      <c r="A67">
+        <v>163.8533333333329</v>
+      </c>
+      <c r="B67">
+        <v>162.03999999999959</v>
+      </c>
+      <c r="E67">
+        <v>191.63333333333281</v>
+      </c>
+      <c r="F67">
+        <v>134.7777777777776</v>
       </c>
       <c r="I67" s="1">
         <v>165.21833330000001</v>
@@ -4218,17 +4225,17 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>169.17833329999999</v>
-      </c>
-      <c r="B68" s="1">
-        <v>157.595</v>
-      </c>
-      <c r="E68" s="1">
-        <v>216.0357143</v>
-      </c>
-      <c r="F68" s="1">
-        <v>116.25</v>
+      <c r="A68">
+        <v>166.81999999999951</v>
+      </c>
+      <c r="B68">
+        <v>164.24666666666639</v>
+      </c>
+      <c r="E68">
+        <v>191.2142857142853</v>
+      </c>
+      <c r="F68">
+        <v>140.32222222222202</v>
       </c>
       <c r="I68" s="1">
         <v>167.69333330000001</v>
@@ -4238,17 +4245,17 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>171.97499999999999</v>
-      </c>
-      <c r="B69" s="1">
-        <v>160.17833329999999</v>
-      </c>
-      <c r="E69" s="1">
-        <v>217.5880952</v>
-      </c>
-      <c r="F69" s="1">
-        <v>119.6611111</v>
+      <c r="A69">
+        <v>169.03999999999968</v>
+      </c>
+      <c r="B69">
+        <v>166.89999999999969</v>
+      </c>
+      <c r="E69">
+        <v>191.86666666666639</v>
+      </c>
+      <c r="F69">
+        <v>144.77777777777729</v>
       </c>
       <c r="I69" s="1">
         <v>170.0783333</v>
@@ -4258,17 +4265,17 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>174.9833333</v>
-      </c>
-      <c r="B70" s="1">
-        <v>162.57</v>
-      </c>
-      <c r="E70" s="1">
-        <v>218.9321429</v>
-      </c>
-      <c r="F70" s="1">
-        <v>123.1916667</v>
+      <c r="A70">
+        <v>171.05999999999972</v>
+      </c>
+      <c r="B70">
+        <v>170.03333333333279</v>
+      </c>
+      <c r="E70">
+        <v>192.4666666666663</v>
+      </c>
+      <c r="F70">
+        <v>149.34444444444398</v>
       </c>
       <c r="I70" s="1">
         <v>172.37166669999999</v>
@@ -4278,17 +4285,17 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>177.14333329999999</v>
-      </c>
-      <c r="B71" s="1">
-        <v>165.34333330000001</v>
-      </c>
-      <c r="E71" s="1">
-        <v>219.5571429</v>
-      </c>
-      <c r="F71" s="1">
-        <v>128.2666667</v>
+      <c r="A71">
+        <v>173.55999999999983</v>
+      </c>
+      <c r="B71">
+        <v>172.89999999999969</v>
+      </c>
+      <c r="E71">
+        <v>194.52380952380901</v>
+      </c>
+      <c r="F71">
+        <v>152.43333333333288</v>
       </c>
       <c r="I71" s="1">
         <v>174.78</v>
@@ -4298,17 +4305,17 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>179.61333329999999</v>
-      </c>
-      <c r="B72" s="1">
-        <v>167.98</v>
-      </c>
-      <c r="E72" s="1">
-        <v>218.84166669999999</v>
-      </c>
-      <c r="F72" s="1">
-        <v>133.96944439999999</v>
+      <c r="A72">
+        <v>174.79999999999961</v>
+      </c>
+      <c r="B72">
+        <v>176.76666666666642</v>
+      </c>
+      <c r="E72">
+        <v>196.24285714285659</v>
+      </c>
+      <c r="F72">
+        <v>155.89999999999958</v>
       </c>
       <c r="I72" s="1">
         <v>177.185</v>
@@ -4318,17 +4325,17 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>181.80833329999999</v>
-      </c>
-      <c r="B73" s="1">
-        <v>170.99833330000001</v>
-      </c>
-      <c r="E73" s="1">
-        <v>217.78928569999999</v>
-      </c>
-      <c r="F73" s="1">
-        <v>139.82499999999999</v>
+      <c r="A73">
+        <v>177.44666666666632</v>
+      </c>
+      <c r="B73">
+        <v>179.53333333333313</v>
+      </c>
+      <c r="E73">
+        <v>196.86190476190441</v>
+      </c>
+      <c r="F73">
+        <v>160.45555555555512</v>
       </c>
       <c r="I73" s="1">
         <v>179.91</v>
@@ -4338,17 +4345,17 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>183.87666669999999</v>
-      </c>
-      <c r="B74" s="1">
-        <v>174.4233333</v>
-      </c>
-      <c r="E74" s="1">
-        <v>216.37619050000001</v>
-      </c>
-      <c r="F74" s="1">
-        <v>145.9</v>
+      <c r="A74">
+        <v>182.2799999999998</v>
+      </c>
+      <c r="B74">
+        <v>179.91999999999956</v>
+      </c>
+      <c r="E74">
+        <v>197.75714285714247</v>
+      </c>
+      <c r="F74">
+        <v>164.78888888888849</v>
       </c>
       <c r="I74" s="1">
         <v>182.43333329999999</v>
@@ -4358,17 +4365,17 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>185.77500000000001</v>
-      </c>
-      <c r="B75" s="1">
-        <v>177.3916667</v>
-      </c>
-      <c r="E75" s="1">
-        <v>214.34761900000001</v>
-      </c>
-      <c r="F75" s="1">
-        <v>152.9555556</v>
+      <c r="A75">
+        <v>184.1666666666664</v>
+      </c>
+      <c r="B75">
+        <v>183.23999999999958</v>
+      </c>
+      <c r="E75">
+        <v>198.36666666666628</v>
+      </c>
+      <c r="F75">
+        <v>169.6555555555552</v>
       </c>
       <c r="I75" s="1">
         <v>184.97499999999999</v>
@@ -4378,17 +4385,17 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>188.13</v>
-      </c>
-      <c r="B76" s="1">
-        <v>180.27</v>
-      </c>
-      <c r="E76" s="1">
-        <v>211.8178571</v>
-      </c>
-      <c r="F76" s="1">
-        <v>159.32499999999999</v>
+      <c r="A76">
+        <v>185.8866666666664</v>
+      </c>
+      <c r="B76">
+        <v>186.59333333333308</v>
+      </c>
+      <c r="E76">
+        <v>198.41904761904718</v>
+      </c>
+      <c r="F76">
+        <v>174.78888888888838</v>
       </c>
       <c r="I76" s="1">
         <v>187.4566667</v>
@@ -4398,17 +4405,17 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>190.2</v>
-      </c>
-      <c r="B77" s="1">
-        <v>183.16</v>
-      </c>
-      <c r="E77" s="1">
-        <v>209.3309524</v>
-      </c>
-      <c r="F77" s="1">
-        <v>166.1166667</v>
+      <c r="A77">
+        <v>189.06666666666629</v>
+      </c>
+      <c r="B77">
+        <v>188.8199999999996</v>
+      </c>
+      <c r="E77">
+        <v>200.4857142857137</v>
+      </c>
+      <c r="F77">
+        <v>178.1555555555552</v>
       </c>
       <c r="I77" s="1">
         <v>189.90166669999999</v>
@@ -4418,17 +4425,17 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>192.52666669999999</v>
-      </c>
-      <c r="B78" s="1">
-        <v>186.61333329999999</v>
-      </c>
-      <c r="E78" s="1">
-        <v>207.0488095</v>
-      </c>
-      <c r="F78" s="1">
-        <v>174.375</v>
+      <c r="A78">
+        <v>192.34666666666629</v>
+      </c>
+      <c r="B78">
+        <v>190.78666666666641</v>
+      </c>
+      <c r="E78">
+        <v>202.06190476190429</v>
+      </c>
+      <c r="F78">
+        <v>181.95555555555521</v>
       </c>
       <c r="I78" s="1">
         <v>192.25333330000001</v>
@@ -4438,17 +4445,17 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>194.3666667</v>
-      </c>
-      <c r="B79" s="1">
-        <v>190.80666669999999</v>
-      </c>
-      <c r="E79" s="1">
-        <v>204.72023809999999</v>
-      </c>
-      <c r="F79" s="1">
-        <v>183.04166670000001</v>
+      <c r="A79">
+        <v>194.49333333333297</v>
+      </c>
+      <c r="B79">
+        <v>194.1666666666664</v>
+      </c>
+      <c r="E79">
+        <v>201.75238095238069</v>
+      </c>
+      <c r="F79">
+        <v>187.66666666666629</v>
       </c>
       <c r="I79" s="1">
         <v>194.6033333</v>
@@ -4458,17 +4465,17 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>196.61500000000001</v>
-      </c>
-      <c r="B80" s="1">
-        <v>194.9516667</v>
-      </c>
-      <c r="E80" s="1">
-        <v>202.3869048</v>
-      </c>
-      <c r="F80" s="1">
-        <v>191.70833329999999</v>
+      <c r="A80">
+        <v>196.57999999999979</v>
+      </c>
+      <c r="B80">
+        <v>197.49999999999983</v>
+      </c>
+      <c r="E80">
+        <v>201.22857142857131</v>
+      </c>
+      <c r="F80">
+        <v>193.45555555555521</v>
       </c>
       <c r="I80" s="1">
         <v>197.285</v>
@@ -4478,16 +4485,16 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>200</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>200</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>200</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>200</v>
       </c>
       <c r="I81" s="1">
